--- a/6.MemosCorrespondenciaSIM/Febrero/Matriz de seguimiento compromisos SOAPI 040219.xlsx
+++ b/6.MemosCorrespondenciaSIM/Febrero/Matriz de seguimiento compromisos SOAPI 040219.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio.fuentes\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\WRF1UTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popocha\Documents\GitHub\Dotaciones2019\6.MemosCorrespondenciaSIM\Febrero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9AC46CD-7436-4727-9BAE-9881CA808D7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ECBE3-B2CB-4B38-8F43-F9A3BBACFDF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="225" windowWidth="9000" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RANKING" sheetId="8" r:id="rId1"/>
@@ -24,14 +24,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">REGISTRO!$A$1:$J$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">REGISTRO!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId6"/>
-    <pivotCache cacheId="40" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2556,7 +2562,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3857,7 +3863,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5719,7 +5725,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6523,7 +6529,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7194,7 +7200,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10242,7 +10248,615 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C18DC1A-F006-4CED-ADF3-030354EF8E13}" name="TablaDinámica1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="95">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD649DF-7FFD-4DE8-B416-4A7F775CD98B}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="97">
+  <location ref="A63:C73" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="26">
+        <item x="10"/>
+        <item x="5"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DF8038B-4DB0-4791-B400-005554CF713B}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="194">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="ascending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="7" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de INDICADOR" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="14">
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFD1C722-F727-495E-80E5-56D29AF28595}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A113:C118" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="10"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C18DC1A-F006-4CED-ADF3-030354EF8E13}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="95">
   <location ref="A20:C44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -10475,8 +11089,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9884CFD5-3738-4398-A223-C05B735F3BED}" name="TablaDinámica5" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9884CFD5-3738-4398-A223-C05B735F3BED}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A146:C151" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -10606,614 +11220,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="8" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD649DF-7FFD-4DE8-B416-4A7F775CD98B}" name="TablaDinámica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="97">
-  <location ref="A63:C73" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="26">
-        <item x="10"/>
-        <item x="5"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DF8038B-4DB0-4791-B400-005554CF713B}" name="TablaDinámica3" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="194">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="ascending">
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="7" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de INDICADOR" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="14">
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="30">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="31">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="33">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="35">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="36">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="38">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="30">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="31">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="33">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFD1C722-F727-495E-80E5-56D29AF28595}" name="TablaDinámica4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A113:C118" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="10"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11535,23 +11541,23 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -11560,7 +11566,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11569,7 +11575,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -11578,7 +11584,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
@@ -11589,7 +11595,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -11597,7 +11603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -11605,7 +11611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -11629,15 +11635,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>14</v>
       </c>
@@ -11648,8 +11654,8 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -11657,7 +11663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -11668,7 +11674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>106</v>
       </c>
@@ -11679,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>88</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -11701,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
@@ -11712,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
@@ -11723,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>114</v>
       </c>
@@ -11745,7 +11751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
@@ -11756,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -11778,7 +11784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>206</v>
       </c>
@@ -11789,7 +11795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -11800,7 +11806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>73</v>
       </c>
@@ -11811,7 +11817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
@@ -11822,7 +11828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>103</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>101</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -11855,7 +11861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -11866,7 +11872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
@@ -11877,7 +11883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>95</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -11921,23 +11927,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A61" s="37" t="s">
         <v>19</v>
       </c>
@@ -11948,8 +11954,8 @@
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
@@ -11957,7 +11963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>94</v>
       </c>
@@ -11979,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>88</v>
       </c>
@@ -11990,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>103</v>
       </c>
@@ -12001,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>206</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>86</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
@@ -12034,7 +12040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
@@ -12045,7 +12051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
@@ -12067,71 +12073,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="81" x14ac:dyDescent="0.25"/>
-    <row r="82" x14ac:dyDescent="0.25"/>
-    <row r="83" x14ac:dyDescent="0.25"/>
-    <row r="84" x14ac:dyDescent="0.25"/>
-    <row r="85" x14ac:dyDescent="0.25"/>
-    <row r="86" x14ac:dyDescent="0.25"/>
-    <row r="87" x14ac:dyDescent="0.25"/>
-    <row r="88" x14ac:dyDescent="0.25"/>
-    <row r="89" x14ac:dyDescent="0.25"/>
-    <row r="90" x14ac:dyDescent="0.25"/>
-    <row r="91" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="81" x14ac:dyDescent="0.35"/>
+    <row r="82" x14ac:dyDescent="0.35"/>
+    <row r="83" x14ac:dyDescent="0.35"/>
+    <row r="84" x14ac:dyDescent="0.35"/>
+    <row r="85" x14ac:dyDescent="0.35"/>
+    <row r="86" x14ac:dyDescent="0.35"/>
+    <row r="87" x14ac:dyDescent="0.35"/>
+    <row r="88" x14ac:dyDescent="0.35"/>
+    <row r="89" x14ac:dyDescent="0.35"/>
+    <row r="90" x14ac:dyDescent="0.35"/>
+    <row r="91" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="36" t="s">
         <v>9</v>
       </c>
@@ -12142,37 +12148,37 @@
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>13</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
@@ -12191,7 +12197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>78</v>
       </c>
@@ -12202,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>94</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>73</v>
       </c>
@@ -12224,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>12</v>
       </c>
@@ -12235,28 +12241,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A140" s="38" t="s">
         <v>8</v>
       </c>
@@ -12267,12 +12273,12 @@
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>13</v>
       </c>
@@ -12280,7 +12286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>11</v>
       </c>
@@ -12291,7 +12297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>94</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>73</v>
       </c>
@@ -12324,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -12335,101 +12341,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" x14ac:dyDescent="0.35"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="31"/>
       <c r="B246" s="31"/>
       <c r="C246" s="31"/>
@@ -12438,37 +12444,37 @@
       <c r="F246" s="31"/>
       <c r="G246" s="31"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="257" x14ac:dyDescent="0.25"/>
-    <row r="258" x14ac:dyDescent="0.25"/>
-    <row r="259" x14ac:dyDescent="0.25"/>
-    <row r="260" x14ac:dyDescent="0.25"/>
-    <row r="261" x14ac:dyDescent="0.25"/>
-    <row r="262" x14ac:dyDescent="0.25"/>
-    <row r="263" x14ac:dyDescent="0.25"/>
-    <row r="264" x14ac:dyDescent="0.25"/>
-    <row r="265" x14ac:dyDescent="0.25"/>
-    <row r="266" x14ac:dyDescent="0.25"/>
-    <row r="267" x14ac:dyDescent="0.25"/>
-    <row r="268" x14ac:dyDescent="0.25"/>
-    <row r="269" x14ac:dyDescent="0.25"/>
-    <row r="270" x14ac:dyDescent="0.25"/>
-    <row r="271" x14ac:dyDescent="0.25"/>
-    <row r="272" x14ac:dyDescent="0.25"/>
-    <row r="273" x14ac:dyDescent="0.25"/>
-    <row r="274" x14ac:dyDescent="0.25"/>
-    <row r="275" x14ac:dyDescent="0.25"/>
-    <row r="276" x14ac:dyDescent="0.25"/>
-    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35"/>
+    <row r="257" x14ac:dyDescent="0.35"/>
+    <row r="258" x14ac:dyDescent="0.35"/>
+    <row r="259" x14ac:dyDescent="0.35"/>
+    <row r="260" x14ac:dyDescent="0.35"/>
+    <row r="261" x14ac:dyDescent="0.35"/>
+    <row r="262" x14ac:dyDescent="0.35"/>
+    <row r="263" x14ac:dyDescent="0.35"/>
+    <row r="264" x14ac:dyDescent="0.35"/>
+    <row r="265" x14ac:dyDescent="0.35"/>
+    <row r="266" x14ac:dyDescent="0.35"/>
+    <row r="267" x14ac:dyDescent="0.35"/>
+    <row r="268" x14ac:dyDescent="0.35"/>
+    <row r="269" x14ac:dyDescent="0.35"/>
+    <row r="270" x14ac:dyDescent="0.35"/>
+    <row r="271" x14ac:dyDescent="0.35"/>
+    <row r="272" x14ac:dyDescent="0.35"/>
+    <row r="273" x14ac:dyDescent="0.35"/>
+    <row r="274" x14ac:dyDescent="0.35"/>
+    <row r="275" x14ac:dyDescent="0.35"/>
+    <row r="276" x14ac:dyDescent="0.35"/>
+    <row r="277" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A246:G246"/>
@@ -12488,33 +12494,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Hoja2">
+  <sheetPr codeName="Hoja2" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="A88:I89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="69" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="7" customWidth="1"/>
     <col min="7" max="7" width="18" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.140625" style="14" customWidth="1"/>
-    <col min="11" max="37" width="11.42578125" style="22"/>
-    <col min="38" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="18.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="29.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.1796875" style="14" customWidth="1"/>
+    <col min="11" max="37" width="11.453125" style="22"/>
+    <col min="38" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>175</v>
       </c>
@@ -12528,7 +12534,7 @@
       <c r="I1" s="41"/>
       <c r="J1" s="42"/>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -12587,7 +12593,7 @@
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
     </row>
-    <row r="3" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -12618,7 +12624,7 @@
       </c>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -12649,7 +12655,7 @@
       </c>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -12680,7 +12686,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -12711,7 +12717,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -12742,7 +12748,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -12773,7 +12779,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -12804,7 +12810,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -12835,7 +12841,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -12866,7 +12872,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -12897,7 +12903,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -12928,7 +12934,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -12959,7 +12965,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -12990,7 +12996,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:37" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -13021,7 +13027,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -13052,7 +13058,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -13083,7 +13089,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -13114,7 +13120,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -13145,7 +13151,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -13176,7 +13182,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -13207,7 +13213,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -13238,7 +13244,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -13269,7 +13275,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -13300,7 +13306,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -13331,7 +13337,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -13362,7 +13368,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -13393,7 +13399,7 @@
       </c>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -13424,7 +13430,7 @@
       </c>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -13455,7 +13461,7 @@
       </c>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -13486,7 +13492,7 @@
       </c>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -13517,7 +13523,7 @@
       </c>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -13548,7 +13554,7 @@
       </c>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -13579,7 +13585,7 @@
       </c>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -13610,7 +13616,7 @@
       </c>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -13642,7 +13648,7 @@
       </c>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -13673,7 +13679,7 @@
       </c>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -13704,7 +13710,7 @@
       </c>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -13735,7 +13741,7 @@
       </c>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>38</v>
       </c>
@@ -13766,7 +13772,7 @@
       </c>
       <c r="J40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>39</v>
       </c>
@@ -13797,7 +13803,7 @@
       </c>
       <c r="J41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>40</v>
       </c>
@@ -13828,7 +13834,7 @@
       </c>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -13859,7 +13865,7 @@
       </c>
       <c r="J43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -13890,7 +13896,7 @@
       </c>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -13921,7 +13927,7 @@
       </c>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -13952,7 +13958,7 @@
       </c>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -13983,7 +13989,7 @@
       </c>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -14014,7 +14020,7 @@
       </c>
       <c r="J48" s="30"/>
     </row>
-    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -14045,7 +14051,7 @@
       </c>
       <c r="J49" s="30"/>
     </row>
-    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -14076,7 +14082,7 @@
       </c>
       <c r="J50" s="30"/>
     </row>
-    <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -14107,7 +14113,7 @@
       </c>
       <c r="J51" s="30"/>
     </row>
-    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -14138,7 +14144,7 @@
       </c>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -14169,7 +14175,7 @@
       </c>
       <c r="J53" s="30"/>
     </row>
-    <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -14200,7 +14206,7 @@
       </c>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -14231,7 +14237,7 @@
       </c>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -14262,7 +14268,7 @@
       </c>
       <c r="J56" s="30"/>
     </row>
-    <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -14293,7 +14299,7 @@
       </c>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -14324,7 +14330,7 @@
       </c>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -14355,7 +14361,7 @@
       </c>
       <c r="J59" s="30"/>
     </row>
-    <row r="60" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -14386,7 +14392,7 @@
       </c>
       <c r="J60" s="30"/>
     </row>
-    <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -14418,7 +14424,7 @@
       </c>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -14450,7 +14456,7 @@
       </c>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -14481,7 +14487,7 @@
       </c>
       <c r="J63" s="30"/>
     </row>
-    <row r="64" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -14512,7 +14518,7 @@
       </c>
       <c r="J64" s="30"/>
     </row>
-    <row r="65" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -14543,7 +14549,7 @@
       </c>
       <c r="J65" s="30"/>
     </row>
-    <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -14574,7 +14580,7 @@
       </c>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -14596,16 +14602,16 @@
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16">
-        <f t="shared" ref="H67:H98" si="7">G67-F67</f>
+        <f t="shared" ref="H67:H93" si="7">G67-F67</f>
         <v>-43499</v>
       </c>
       <c r="I67" s="19" t="str">
-        <f t="shared" ref="I67:I98" ca="1" si="8">IF(AND(H67&lt;-1000,TODAY()&lt;F67),"EN TIEMPO DE RESPUESTA",IF(AND(G67="",H67&lt;-1000),"PENDIENTE",IF(H67&lt;=0,"CUMPLIDO A TIEMPO",IF(H67&gt;=1,"CUMPLIDO INOPORTUNAMENTE"))))</f>
+        <f t="shared" ref="I67:I93" ca="1" si="8">IF(AND(H67&lt;-1000,TODAY()&lt;F67),"EN TIEMPO DE RESPUESTA",IF(AND(G67="",H67&lt;-1000),"PENDIENTE",IF(H67&lt;=0,"CUMPLIDO A TIEMPO",IF(H67&gt;=1,"CUMPLIDO INOPORTUNAMENTE"))))</f>
         <v>PENDIENTE</v>
       </c>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -14636,7 +14642,7 @@
       </c>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -14667,7 +14673,7 @@
       </c>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -14698,7 +14704,7 @@
       </c>
       <c r="J70" s="30"/>
     </row>
-    <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -14729,7 +14735,7 @@
       </c>
       <c r="J71" s="30"/>
     </row>
-    <row r="72" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -14760,7 +14766,7 @@
       </c>
       <c r="J72" s="30"/>
     </row>
-    <row r="73" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -14791,7 +14797,7 @@
       </c>
       <c r="J73" s="30"/>
     </row>
-    <row r="74" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -14822,7 +14828,7 @@
       </c>
       <c r="J74" s="30"/>
     </row>
-    <row r="75" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -14853,7 +14859,7 @@
       </c>
       <c r="J75" s="30"/>
     </row>
-    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -14884,7 +14890,7 @@
       </c>
       <c r="J76" s="30"/>
     </row>
-    <row r="77" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -14915,7 +14921,7 @@
       </c>
       <c r="J77" s="30"/>
     </row>
-    <row r="78" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -14946,7 +14952,7 @@
       </c>
       <c r="J78" s="30"/>
     </row>
-    <row r="79" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14977,7 +14983,7 @@
       </c>
       <c r="J79" s="30"/>
     </row>
-    <row r="80" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -15008,7 +15014,7 @@
       </c>
       <c r="J80" s="30"/>
     </row>
-    <row r="81" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -15039,7 +15045,7 @@
       </c>
       <c r="J81" s="30"/>
     </row>
-    <row r="82" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -15070,7 +15076,7 @@
       </c>
       <c r="J82" s="30"/>
     </row>
-    <row r="83" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -15100,7 +15106,7 @@
       </c>
       <c r="J83" s="21"/>
     </row>
-    <row r="84" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -15130,7 +15136,7 @@
       </c>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -15161,7 +15167,7 @@
       </c>
       <c r="J85" s="30"/>
     </row>
-    <row r="86" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15192,7 +15198,7 @@
       </c>
       <c r="J86" s="30"/>
     </row>
-    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15222,7 +15228,7 @@
       </c>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15252,7 +15258,7 @@
       </c>
       <c r="J88" s="21"/>
     </row>
-    <row r="89" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -15282,7 +15288,7 @@
       </c>
       <c r="J89" s="21"/>
     </row>
-    <row r="90" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -15312,7 +15318,7 @@
       </c>
       <c r="J90" s="30"/>
     </row>
-    <row r="91" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -15342,7 +15348,7 @@
       </c>
       <c r="J91" s="30"/>
     </row>
-    <row r="92" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -15372,7 +15378,7 @@
       </c>
       <c r="J92" s="30"/>
     </row>
-    <row r="93" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -15404,11 +15410,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:J93" xr:uid="{BFA6C444-00F0-47CB-972E-B943D6794338}">
-    <sortState ref="A3:J10">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DERLY FAJARDO"/>
+        <filter val="MANUEL JOSE COLORADO GIRALDO"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J10">
       <sortCondition ref="F3:F10"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B3:J93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J93">
     <sortCondition ref="F3:F93"/>
   </sortState>
   <mergeCells count="1">
@@ -15469,162 +15481,162 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="145" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="145" x14ac:dyDescent="0.35">
       <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="145" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="145" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
         <v>51</v>
       </c>
@@ -15643,18 +15655,18 @@
       <selection activeCell="A8" sqref="A8:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="2" max="2" width="75.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -15662,12 +15674,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="115" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -15675,12 +15687,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -15688,7 +15700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="128" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -15696,7 +15708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -15704,7 +15716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="127.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -15712,7 +15724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="165.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -15720,7 +15732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -15728,7 +15740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -15736,7 +15748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -15744,7 +15756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -15752,7 +15764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -15760,7 +15772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -15768,7 +15780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="128" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -15776,7 +15788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -15784,7 +15796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -15792,7 +15804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
@@ -15814,344 +15826,344 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A66">
     <sortCondition ref="A1:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
